--- a/COSTOS DE EXPORTACIONES ULTIMO.xlsx
+++ b/COSTOS DE EXPORTACIONES ULTIMO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOCENTE.UCVESPNAU204_1\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOCENTE.UCVESPNAU204_1\Desktop\Github clone\testdecalidad2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AB88C78-3670-4BA7-9FE0-56179109446B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CE3C46-C4E7-4285-BC82-33568381735D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6705" activeTab="1" xr2:uid="{FD29959E-9F75-A946-B1A0-F0B4DA8A6A30}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="97">
   <si>
     <t>FOB</t>
   </si>
@@ -331,6 +331,12 @@
   </si>
   <si>
     <t>COSTO PLANTA EMPAQUE POR KG</t>
+  </si>
+  <si>
+    <t>Holaaaa soy jhazmin</t>
+  </si>
+  <si>
+    <t>holaaaaaaaaaaaaaaaaaaaaaa</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1146,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1320,11 +1326,17 @@
         <f>+C9</f>
         <v>22400</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>60</v>
       </c>
@@ -1337,7 +1349,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>13</v>
@@ -1346,7 +1358,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>14</v>
       </c>
@@ -1354,7 +1366,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>15</v>
@@ -1363,7 +1375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>51</v>
       </c>
@@ -1372,7 +1384,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>61</v>
       </c>
@@ -1380,10 +1392,10 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>67</v>
       </c>
@@ -1396,7 +1408,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>64</v>
       </c>
@@ -1408,7 +1420,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>65</v>
       </c>
@@ -1419,10 +1431,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>68</v>
       </c>
@@ -1432,7 +1444,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>70</v>
       </c>
@@ -1440,7 +1452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>69</v>
       </c>
@@ -1449,7 +1461,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>25</v>
       </c>
